--- a/카드사 이직률.xlsx
+++ b/카드사 이직률.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDICI\Documents\MEDICI (22-01-19 ~ 22-06-24)\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14579275-FB35-4F56-AC1E-BB6BFCDF5D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F83EF-A341-42BA-AAD0-7DBB3FE6EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E4FE9E0-06CB-4AF8-8523-1486E359F727}"/>
   </bookViews>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C895FE07-8739-42E0-A39E-DD4D59AFCBCD}">
-  <dimension ref="A2:Q10"/>
+  <dimension ref="A2:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,6 +923,82 @@
       </c>
       <c r="Q10" s="1">
         <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>SUM(B3:B10)/8</f>
+        <v>13.25</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C3:C10)/8</f>
+        <v>-21.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:Q11" si="0">SUM(D3:D10)/8</f>
+        <v>15.25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-15.875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>8.125</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-20.75</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-5.125</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>71.375</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-66.75</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>7.625</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>-9.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>SUM(B11,D11,F11,H11,J11,L11,N11,P11)/8</f>
+        <v>18.9375</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C11,E11,G11,I11,K11,M11,O11,Q11)/8</f>
+        <v>-19.390625</v>
       </c>
     </row>
   </sheetData>
